--- a/posesiones/1485989.xlsx
+++ b/posesiones/1485989.xlsx
@@ -1721,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>26</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>16</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>21</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>5</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>16</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>17</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>23</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>7</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>20</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>13</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>8</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>11</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>14</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>20</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>24</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>20</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>21</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>34</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>15</v>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>9</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>13</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>19</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>25</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R93">
         <v>10</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>3</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R101">
         <v>34</v>
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R102">
         <v>28</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>5</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>28</v>
@@ -6885,10 +6885,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7117,10 +7117,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>13</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R117">
         <v>16</v>
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R118">
         <v>26</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7614,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>27</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R125">
         <v>30</v>
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>17</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R128">
         <v>12</v>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>32</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R139">
         <v>25</v>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R140">
         <v>25</v>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8708,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R144">
         <v>27</v>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R146">
         <v>5</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R155">
         <v>1</v>
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>8</v>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R161">
         <v>20</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>6</v>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R167">
         <v>16</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9931,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>21</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10219,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R175">
         <v>30</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10416,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R179">
         <v>22</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R181">
         <v>25</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R183">
         <v>5</v>
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R194">
         <v>6</v>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R195">
         <v>16</v>
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R196">
         <v>20</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R200">
         <v>13</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R203">
         <v>31</v>
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>21</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R208">
         <v>37</v>
@@ -11895,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R209">
         <v>6</v>
@@ -11939,10 +11939,10 @@
         <v>1</v>
       </c>
       <c r="P210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q210">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12265,10 +12265,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12318,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>13</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12418,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R220">
         <v>23</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R221">
         <v>21</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R223">
         <v>23</v>
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R225">
         <v>6</v>
@@ -12727,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R226">
         <v>19</v>
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12830,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R228">
         <v>14</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12927,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R230">
         <v>22</v>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R232">
         <v>15</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R234">
         <v>14</v>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13230,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R236">
         <v>14</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R238">
         <v>17</v>
@@ -13380,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13568,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13618,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R244">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R249">
         <v>20</v>
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R251">
         <v>14</v>
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R252">
         <v>25</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R256">
         <v>17</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14312,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R258">
         <v>20</v>
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R262">
         <v>12</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R264">
         <v>25</v>
@@ -14659,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14709,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R266">
         <v>17</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15044,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R273">
         <v>21</v>
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15147,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R275">
         <v>10</v>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15250,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R277">
         <v>18</v>
@@ -15303,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R278">
         <v>14</v>
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R279">
         <v>6</v>
@@ -15409,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15459,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R281">
         <v>25</v>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R286">
         <v>26</v>
@@ -15750,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R287">
         <v>20</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R293">
         <v>21</v>
@@ -16094,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16144,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R295">
         <v>10</v>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16244,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R297">
         <v>8</v>
@@ -16294,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R299">
         <v>17</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16491,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R302">
         <v>0</v>
@@ -16544,7 +16544,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R303">
         <v>15</v>
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16647,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R305">
         <v>5</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16744,7 +16744,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16791,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17026,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R314">
         <v>15</v>
@@ -17126,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17220,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17364,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R320">
         <v>13</v>
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R322">
         <v>2</v>
@@ -17511,10 +17511,10 @@
         <v>1</v>
       </c>
       <c r="P323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17931,10 +17931,10 @@
         <v>1</v>
       </c>
       <c r="P332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q332">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17984,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R333">
         <v>14</v>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18084,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R335">
         <v>24</v>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18181,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18231,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R338">
         <v>0</v>
@@ -18284,7 +18284,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R339">
         <v>24</v>
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18428,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18528,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R344">
         <v>29</v>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18628,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R346">
         <v>16</v>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18728,7 +18728,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R348">
         <v>23</v>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18825,7 +18825,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R353">
         <v>36</v>
@@ -19025,7 +19025,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19075,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R355">
         <v>22</v>
@@ -19128,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R356">
         <v>18</v>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19225,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19319,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19366,7 +19366,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19510,7 +19510,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R364">
         <v>15</v>
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19754,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R369">
         <v>10</v>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19851,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19948,7 +19948,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R373">
         <v>15</v>
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20045,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20142,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R377">
         <v>0</v>
@@ -20192,7 +20192,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R382">
         <v>14</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R384">
         <v>17</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R385">
         <v>21</v>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20730,7 +20730,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20780,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R390">
         <v>14</v>
@@ -20827,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20874,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20971,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R394">
         <v>9</v>
@@ -21024,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R395">
         <v>21</v>
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21127,7 +21127,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R397">
         <v>17</v>
@@ -21180,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21227,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21321,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21371,7 +21371,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R402">
         <v>20</v>
@@ -21424,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R403">
         <v>13</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21527,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R405">
         <v>21</v>
@@ -21580,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21630,7 +21630,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R407">
         <v>11</v>
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21827,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R411">
         <v>21</v>
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22068,7 +22068,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R416">
         <v>11</v>
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22309,7 +22309,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R421">
         <v>16</v>
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R422">
         <v>16</v>
@@ -22415,7 +22415,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R423">
         <v>3</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22509,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22653,7 +22653,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R428">
         <v>19</v>
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22797,7 +22797,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R431">
         <v>27</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22900,7 +22900,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R433">
         <v>15</v>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23000,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23047,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23191,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R439">
         <v>5</v>
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23288,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>1</v>
@@ -23435,7 +23435,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23532,7 +23532,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R446">
         <v>9</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23726,7 +23726,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R450">
         <v>4</v>
@@ -23779,7 +23779,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R451">
         <v>10</v>
@@ -23835,7 +23835,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R452">
         <v>3</v>
@@ -23879,10 +23879,10 @@
         <v>1</v>
       </c>
       <c r="P453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q453">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
